--- a/TrainingIS.WebApp/Content/Files/UploadStagiaires (6).xlsx
+++ b/TrainingIS.WebApp/Content/Files/UploadStagiaires (6).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="345">
   <si>
     <t>FirstName</t>
   </si>
@@ -129,9 +129,6 @@
     <t>False</t>
   </si>
   <si>
-    <t>Madani_1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>000004</t>
   </si>
   <si>
-    <t>Madani_4</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>000005</t>
   </si>
   <si>
-    <t>Madani_5</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>000008</t>
   </si>
   <si>
-    <t>Madani_8</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -1063,6 +1051,9 @@
   </si>
   <si>
     <t>Madani--1</t>
+  </si>
+  <si>
+    <t>Madani_888</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,31 +1587,28 @@
       <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" t="s">
-        <v>38</v>
-      </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
@@ -1635,30 +1623,30 @@
         <v>35</v>
       </c>
       <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" t="s">
-        <v>43</v>
-      </c>
       <c r="AC3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
       </c>
       <c r="K4" t="s">
         <v>34</v>
@@ -1673,30 +1661,30 @@
         <v>35</v>
       </c>
       <c r="AA4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" t="s">
-        <v>49</v>
-      </c>
       <c r="AC4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
@@ -1710,31 +1698,28 @@
       <c r="N5" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" t="s">
-        <v>53</v>
-      </c>
       <c r="AB5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
@@ -1748,31 +1733,28 @@
       <c r="N6" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" t="s">
-        <v>58</v>
-      </c>
       <c r="AB6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AC6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
@@ -1787,30 +1769,30 @@
         <v>35</v>
       </c>
       <c r="AA7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AC7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -1825,30 +1807,30 @@
         <v>35</v>
       </c>
       <c r="AA8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AC8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
         <v>34</v>
@@ -1863,30 +1845,30 @@
         <v>35</v>
       </c>
       <c r="AA9" t="s">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="AB9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
@@ -1901,30 +1883,30 @@
         <v>35</v>
       </c>
       <c r="AA10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
@@ -1939,30 +1921,30 @@
         <v>35</v>
       </c>
       <c r="AA11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
@@ -1977,30 +1959,30 @@
         <v>35</v>
       </c>
       <c r="AA12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
@@ -2015,30 +1997,30 @@
         <v>35</v>
       </c>
       <c r="AA13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AB13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AC13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s">
         <v>34</v>
@@ -2053,30 +2035,30 @@
         <v>35</v>
       </c>
       <c r="AA14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AB14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AC14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s">
         <v>34</v>
@@ -2091,30 +2073,30 @@
         <v>35</v>
       </c>
       <c r="AA15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AB15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AC15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -2129,30 +2111,30 @@
         <v>35</v>
       </c>
       <c r="AA16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AB16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AC16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
@@ -2167,30 +2149,30 @@
         <v>35</v>
       </c>
       <c r="AA17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AB17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AC17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
         <v>34</v>
@@ -2205,30 +2187,30 @@
         <v>35</v>
       </c>
       <c r="AA18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AB18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AC18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
@@ -2243,30 +2225,30 @@
         <v>35</v>
       </c>
       <c r="AA19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AB19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -2281,30 +2263,30 @@
         <v>35</v>
       </c>
       <c r="AA20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AC20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
@@ -2319,30 +2301,30 @@
         <v>35</v>
       </c>
       <c r="AA21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AB21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AC21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s">
         <v>34</v>
@@ -2357,30 +2339,30 @@
         <v>35</v>
       </c>
       <c r="AA22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AB22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AC22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -2395,30 +2377,30 @@
         <v>35</v>
       </c>
       <c r="AA23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AB23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AC23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K24" t="s">
         <v>34</v>
@@ -2433,30 +2415,30 @@
         <v>35</v>
       </c>
       <c r="AA24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AB24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -2471,30 +2453,30 @@
         <v>35</v>
       </c>
       <c r="AA25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AB25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AC25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s">
         <v>34</v>
@@ -2509,30 +2491,30 @@
         <v>35</v>
       </c>
       <c r="AA26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AB26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AC26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s">
         <v>34</v>
@@ -2547,30 +2529,30 @@
         <v>35</v>
       </c>
       <c r="AA27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AB27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AC27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s">
         <v>34</v>
@@ -2585,30 +2567,30 @@
         <v>35</v>
       </c>
       <c r="AA28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AB28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s">
         <v>34</v>
@@ -2623,30 +2605,30 @@
         <v>35</v>
       </c>
       <c r="AA29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AB29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AC29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K30" t="s">
         <v>34</v>
@@ -2661,30 +2643,30 @@
         <v>35</v>
       </c>
       <c r="AA30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AB30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AC30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
@@ -2699,1161 +2681,1161 @@
         <v>35</v>
       </c>
       <c r="AA31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AB31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AC31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA32" t="s">
         <v>185</v>
       </c>
-      <c r="B32" t="s">
+      <c r="AB32" t="s">
         <v>186</v>
       </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" t="s">
-        <v>35</v>
-      </c>
-      <c r="N32" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>190</v>
-      </c>
       <c r="AC32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB33" t="s">
         <v>191</v>
       </c>
-      <c r="B33" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" t="s">
-        <v>188</v>
-      </c>
-      <c r="L33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" t="s">
-        <v>35</v>
-      </c>
-      <c r="N33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>195</v>
-      </c>
       <c r="AC33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K34" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB34" t="s">
         <v>196</v>
       </c>
-      <c r="B34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" t="s">
-        <v>198</v>
-      </c>
-      <c r="K34" t="s">
-        <v>188</v>
-      </c>
-      <c r="L34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>200</v>
-      </c>
       <c r="AC34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K35" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB35" t="s">
         <v>201</v>
       </c>
-      <c r="B35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" t="s">
-        <v>203</v>
-      </c>
-      <c r="K35" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" t="s">
-        <v>35</v>
-      </c>
-      <c r="N35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>205</v>
-      </c>
       <c r="AC35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB36" t="s">
         <v>206</v>
       </c>
-      <c r="B36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" t="s">
-        <v>208</v>
-      </c>
-      <c r="K36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>210</v>
-      </c>
       <c r="AC36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB37" t="s">
         <v>211</v>
       </c>
-      <c r="B37" t="s">
-        <v>212</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" t="s">
-        <v>213</v>
-      </c>
-      <c r="K37" t="s">
-        <v>188</v>
-      </c>
-      <c r="L37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>215</v>
-      </c>
       <c r="AC37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB38" t="s">
         <v>216</v>
       </c>
-      <c r="B38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" t="s">
-        <v>218</v>
-      </c>
-      <c r="K38" t="s">
-        <v>188</v>
-      </c>
-      <c r="L38" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>220</v>
-      </c>
       <c r="AC38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>219</v>
+      </c>
+      <c r="K39" t="s">
+        <v>184</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB39" t="s">
         <v>221</v>
       </c>
-      <c r="B39" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" t="s">
-        <v>223</v>
-      </c>
-      <c r="K39" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>225</v>
-      </c>
       <c r="AC39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" t="s">
+        <v>184</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB40" t="s">
         <v>226</v>
       </c>
-      <c r="B40" t="s">
-        <v>227</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" t="s">
-        <v>228</v>
-      </c>
-      <c r="K40" t="s">
-        <v>188</v>
-      </c>
-      <c r="L40" t="s">
-        <v>35</v>
-      </c>
-      <c r="M40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N40" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>230</v>
-      </c>
       <c r="AC40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>229</v>
+      </c>
+      <c r="K41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB41" t="s">
         <v>231</v>
       </c>
-      <c r="B41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" t="s">
-        <v>233</v>
-      </c>
-      <c r="K41" t="s">
-        <v>188</v>
-      </c>
-      <c r="L41" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>235</v>
-      </c>
       <c r="AC41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" t="s">
+        <v>184</v>
+      </c>
+      <c r="L42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB42" t="s">
         <v>236</v>
       </c>
-      <c r="B42" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" t="s">
-        <v>238</v>
-      </c>
-      <c r="K42" t="s">
-        <v>188</v>
-      </c>
-      <c r="L42" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>240</v>
-      </c>
       <c r="AC42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>239</v>
+      </c>
+      <c r="K43" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB43" t="s">
         <v>241</v>
       </c>
-      <c r="B43" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>243</v>
-      </c>
-      <c r="K43" t="s">
-        <v>188</v>
-      </c>
-      <c r="L43" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>245</v>
-      </c>
       <c r="AC43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>244</v>
+      </c>
+      <c r="K44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB44" t="s">
         <v>246</v>
       </c>
-      <c r="B44" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" t="s">
-        <v>248</v>
-      </c>
-      <c r="K44" t="s">
-        <v>188</v>
-      </c>
-      <c r="L44" t="s">
-        <v>35</v>
-      </c>
-      <c r="M44" t="s">
-        <v>35</v>
-      </c>
-      <c r="N44" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>250</v>
-      </c>
       <c r="AC44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB45" t="s">
         <v>251</v>
       </c>
-      <c r="B45" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" t="s">
-        <v>253</v>
-      </c>
-      <c r="K45" t="s">
-        <v>188</v>
-      </c>
-      <c r="L45" t="s">
-        <v>35</v>
-      </c>
-      <c r="M45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N45" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>255</v>
-      </c>
       <c r="AC45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" t="s">
+        <v>184</v>
+      </c>
+      <c r="L46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB46" t="s">
         <v>256</v>
       </c>
-      <c r="B46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" t="s">
-        <v>258</v>
-      </c>
-      <c r="K46" t="s">
-        <v>188</v>
-      </c>
-      <c r="L46" t="s">
-        <v>35</v>
-      </c>
-      <c r="M46" t="s">
-        <v>35</v>
-      </c>
-      <c r="N46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>260</v>
-      </c>
       <c r="AC46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>259</v>
+      </c>
+      <c r="K47" t="s">
+        <v>184</v>
+      </c>
+      <c r="L47" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB47" t="s">
         <v>261</v>
       </c>
-      <c r="B47" t="s">
-        <v>262</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" t="s">
-        <v>263</v>
-      </c>
-      <c r="K47" t="s">
-        <v>188</v>
-      </c>
-      <c r="L47" t="s">
-        <v>35</v>
-      </c>
-      <c r="M47" t="s">
-        <v>35</v>
-      </c>
-      <c r="N47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>265</v>
-      </c>
       <c r="AC47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>264</v>
+      </c>
+      <c r="K48" t="s">
+        <v>184</v>
+      </c>
+      <c r="L48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB48" t="s">
         <v>266</v>
       </c>
-      <c r="B48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" t="s">
-        <v>268</v>
-      </c>
-      <c r="K48" t="s">
-        <v>188</v>
-      </c>
-      <c r="L48" t="s">
-        <v>35</v>
-      </c>
-      <c r="M48" t="s">
-        <v>35</v>
-      </c>
-      <c r="N48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>270</v>
-      </c>
       <c r="AC48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>269</v>
+      </c>
+      <c r="K49" t="s">
+        <v>184</v>
+      </c>
+      <c r="L49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB49" t="s">
         <v>271</v>
       </c>
-      <c r="B49" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" t="s">
-        <v>273</v>
-      </c>
-      <c r="K49" t="s">
-        <v>188</v>
-      </c>
-      <c r="L49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M49" t="s">
-        <v>35</v>
-      </c>
-      <c r="N49" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>275</v>
-      </c>
       <c r="AC49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>274</v>
+      </c>
+      <c r="K50" t="s">
+        <v>184</v>
+      </c>
+      <c r="L50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB50" t="s">
         <v>276</v>
       </c>
-      <c r="B50" t="s">
-        <v>277</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" t="s">
-        <v>278</v>
-      </c>
-      <c r="K50" t="s">
-        <v>188</v>
-      </c>
-      <c r="L50" t="s">
-        <v>35</v>
-      </c>
-      <c r="M50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>280</v>
-      </c>
       <c r="AC50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>279</v>
+      </c>
+      <c r="K51" t="s">
+        <v>184</v>
+      </c>
+      <c r="L51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB51" t="s">
         <v>281</v>
       </c>
-      <c r="B51" t="s">
-        <v>282</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" t="s">
-        <v>283</v>
-      </c>
-      <c r="K51" t="s">
-        <v>188</v>
-      </c>
-      <c r="L51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M51" t="s">
-        <v>35</v>
-      </c>
-      <c r="N51" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>285</v>
-      </c>
       <c r="AC51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>284</v>
+      </c>
+      <c r="K52" t="s">
+        <v>184</v>
+      </c>
+      <c r="L52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB52" t="s">
         <v>286</v>
       </c>
-      <c r="B52" t="s">
-        <v>287</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" t="s">
-        <v>288</v>
-      </c>
-      <c r="K52" t="s">
-        <v>188</v>
-      </c>
-      <c r="L52" t="s">
-        <v>35</v>
-      </c>
-      <c r="M52" t="s">
-        <v>35</v>
-      </c>
-      <c r="N52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>290</v>
-      </c>
       <c r="AC52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" t="s">
+        <v>289</v>
+      </c>
+      <c r="K53" t="s">
+        <v>184</v>
+      </c>
+      <c r="L53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB53" t="s">
         <v>291</v>
       </c>
-      <c r="B53" t="s">
-        <v>292</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" t="s">
-        <v>293</v>
-      </c>
-      <c r="K53" t="s">
-        <v>188</v>
-      </c>
-      <c r="L53" t="s">
-        <v>35</v>
-      </c>
-      <c r="M53" t="s">
-        <v>35</v>
-      </c>
-      <c r="N53" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>295</v>
-      </c>
       <c r="AC53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>294</v>
+      </c>
+      <c r="K54" t="s">
+        <v>184</v>
+      </c>
+      <c r="L54" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB54" t="s">
         <v>296</v>
       </c>
-      <c r="B54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" t="s">
-        <v>298</v>
-      </c>
-      <c r="K54" t="s">
-        <v>188</v>
-      </c>
-      <c r="L54" t="s">
-        <v>35</v>
-      </c>
-      <c r="M54" t="s">
-        <v>35</v>
-      </c>
-      <c r="N54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>300</v>
-      </c>
       <c r="AC54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>299</v>
+      </c>
+      <c r="K55" t="s">
+        <v>184</v>
+      </c>
+      <c r="L55" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB55" t="s">
         <v>301</v>
       </c>
-      <c r="B55" t="s">
-        <v>302</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" t="s">
-        <v>303</v>
-      </c>
-      <c r="K55" t="s">
-        <v>188</v>
-      </c>
-      <c r="L55" t="s">
-        <v>35</v>
-      </c>
-      <c r="M55" t="s">
-        <v>35</v>
-      </c>
-      <c r="N55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>305</v>
-      </c>
       <c r="AC55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" t="s">
+        <v>304</v>
+      </c>
+      <c r="K56" t="s">
+        <v>184</v>
+      </c>
+      <c r="L56" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB56" t="s">
         <v>306</v>
       </c>
-      <c r="B56" t="s">
-        <v>307</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" t="s">
-        <v>308</v>
-      </c>
-      <c r="K56" t="s">
-        <v>188</v>
-      </c>
-      <c r="L56" t="s">
-        <v>35</v>
-      </c>
-      <c r="M56" t="s">
-        <v>35</v>
-      </c>
-      <c r="N56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>310</v>
-      </c>
       <c r="AC56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s">
+        <v>309</v>
+      </c>
+      <c r="K57" t="s">
+        <v>184</v>
+      </c>
+      <c r="L57" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB57" t="s">
         <v>311</v>
       </c>
-      <c r="B57" t="s">
-        <v>312</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" t="s">
-        <v>313</v>
-      </c>
-      <c r="K57" t="s">
-        <v>188</v>
-      </c>
-      <c r="L57" t="s">
-        <v>35</v>
-      </c>
-      <c r="M57" t="s">
-        <v>35</v>
-      </c>
-      <c r="N57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>315</v>
-      </c>
       <c r="AC57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>312</v>
+      </c>
+      <c r="B58" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s">
+        <v>314</v>
+      </c>
+      <c r="K58" t="s">
+        <v>184</v>
+      </c>
+      <c r="L58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB58" t="s">
         <v>316</v>
       </c>
-      <c r="B58" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" t="s">
-        <v>318</v>
-      </c>
-      <c r="K58" t="s">
-        <v>188</v>
-      </c>
-      <c r="L58" t="s">
-        <v>35</v>
-      </c>
-      <c r="M58" t="s">
-        <v>35</v>
-      </c>
-      <c r="N58" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>320</v>
-      </c>
       <c r="AC58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" t="s">
+        <v>319</v>
+      </c>
+      <c r="K59" t="s">
+        <v>184</v>
+      </c>
+      <c r="L59" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB59" t="s">
         <v>321</v>
       </c>
-      <c r="B59" t="s">
-        <v>322</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" t="s">
-        <v>323</v>
-      </c>
-      <c r="K59" t="s">
-        <v>188</v>
-      </c>
-      <c r="L59" t="s">
-        <v>35</v>
-      </c>
-      <c r="M59" t="s">
-        <v>35</v>
-      </c>
-      <c r="N59" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>325</v>
-      </c>
       <c r="AC59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>324</v>
+      </c>
+      <c r="K60" t="s">
+        <v>184</v>
+      </c>
+      <c r="L60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB60" t="s">
         <v>326</v>
       </c>
-      <c r="B60" t="s">
-        <v>327</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" t="s">
-        <v>328</v>
-      </c>
-      <c r="K60" t="s">
-        <v>188</v>
-      </c>
-      <c r="L60" t="s">
-        <v>35</v>
-      </c>
-      <c r="M60" t="s">
-        <v>35</v>
-      </c>
-      <c r="N60" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>330</v>
-      </c>
       <c r="AC60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>327</v>
+      </c>
+      <c r="B61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>329</v>
+      </c>
+      <c r="K61" t="s">
+        <v>184</v>
+      </c>
+      <c r="L61" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB61" t="s">
         <v>331</v>
       </c>
-      <c r="B61" t="s">
-        <v>332</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" t="s">
-        <v>333</v>
-      </c>
-      <c r="K61" t="s">
-        <v>188</v>
-      </c>
-      <c r="L61" t="s">
-        <v>35</v>
-      </c>
-      <c r="M61" t="s">
-        <v>35</v>
-      </c>
-      <c r="N61" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>335</v>
-      </c>
       <c r="AC61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -3877,71 +3859,71 @@
         <v>35</v>
       </c>
       <c r="AA62" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AB62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AD62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>335</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" t="s">
+        <v>336</v>
+      </c>
+      <c r="L63" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC63" t="s">
         <v>339</v>
       </c>
-      <c r="B63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63" t="s">
-        <v>340</v>
-      </c>
-      <c r="L63" t="s">
-        <v>35</v>
-      </c>
-      <c r="M63" t="s">
-        <v>35</v>
-      </c>
-      <c r="N63" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>343</v>
-      </c>
       <c r="AD63" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
         <v>46</v>
       </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" t="s">
-        <v>47</v>
-      </c>
       <c r="K64" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L64" t="s">
         <v>35</v>
@@ -3953,16 +3935,16 @@
         <v>35</v>
       </c>
       <c r="AA64" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AB64" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AC64" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AD64" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
